--- a/plots/countries/plot data/Greece.xlsx
+++ b/plots/countries/plot data/Greece.xlsx
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>10.9336075613589</v>
+        <v>10.9323583358125</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.26873524760516</v>
+        <v>-2.2796079036059</v>
       </c>
     </row>
     <row r="10">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>10.8553457708804</v>
+        <v>10.854096545334</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.4015371087711</v>
+        <v>-2.41212573711423</v>
       </c>
     </row>
     <row r="19">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>10.3224586636383</v>
+        <v>10.3207896962432</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.58967035359165</v>
+        <v>-2.60437238058835</v>
       </c>
     </row>
     <row r="28">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>10.6426934267373</v>
+        <v>10.6410244593421</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.07060261289079</v>
+        <v>-3.08960901651503</v>
       </c>
     </row>
     <row r="37">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>11.1308917688841</v>
+        <v>11.1296425433377</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.80787242576272</v>
+        <v>-2.82753632996019</v>
       </c>
     </row>
     <row r="46">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>12.8184213734633</v>
+        <v>12.8175818897658</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-3.05937172540328</v>
+        <v>-3.07882088143393</v>
       </c>
     </row>
     <row r="55">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>13.4709782695678</v>
+        <v>13.4701387858702</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.45011450414444</v>
+        <v>-2.40044651282512</v>
       </c>
     </row>
     <row r="64">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>13.9083884922497</v>
+        <v>13.9079687504009</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.18279524729444</v>
+        <v>-2.19662538438868</v>
       </c>
     </row>
     <row r="73">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>14.5506798114527</v>
+        <v>14.5502600696039</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.22104140592564</v>
+        <v>-2.22027435824972</v>
       </c>
     </row>
     <row r="82">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>15.2456382437679</v>
+        <v>15.2452185019191</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.72962319994738</v>
+        <v>-2.74408433711449</v>
       </c>
     </row>
     <row r="91">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>14.2819402144173</v>
+        <v>14.2815204725685</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.5102226613502</v>
+        <v>-2.52373016520464</v>
       </c>
     </row>
     <row r="100">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>13.7972244058534</v>
+        <v>13.7968046640046</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-2.64426169054596</v>
+        <v>-2.64655686498118</v>
       </c>
     </row>
     <row r="109">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>13.9725258069653</v>
+        <v>13.9722830973374</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-2.9836290478227</v>
+        <v>-2.99216536272236</v>
       </c>
     </row>
     <row r="118">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>13.8324599205084</v>
+        <v>13.8322993076393</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-2.73460707620367</v>
+        <v>-2.74378599283785</v>
       </c>
     </row>
     <row r="127">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>13.9893694777392</v>
+        <v>13.9889497358904</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-2.71658729464116</v>
+        <v>-2.72238671468835</v>
       </c>
     </row>
     <row r="136">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>14.7746367003303</v>
+        <v>14.7744917906832</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-3.55015522089534</v>
+        <v>-3.55168899322154</v>
       </c>
     </row>
     <row r="145">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>12.5223024101017</v>
+        <v>12.5221175262698</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-3.6104975110434</v>
+        <v>-3.61371190206199</v>
       </c>
     </row>
     <row r="154">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>12.9246123985196</v>
+        <v>12.9243745482473</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-2.24846600349081</v>
+        <v>-2.18055976841497</v>
       </c>
     </row>
     <row r="163">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>12.7122705612995</v>
+        <v>12.7119547574945</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-3.33284846714805</v>
+        <v>-3.342409690732</v>
       </c>
     </row>
     <row r="172">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>10.9774166354799</v>
+        <v>10.9770618549084</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-3.42899146006893</v>
+        <v>-3.43928706442296</v>
       </c>
     </row>
     <row r="181">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>11.4338243795313</v>
+        <v>11.4338257995314</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-3.40172366046531</v>
+        <v>-3.41099396502723</v>
       </c>
     </row>
     <row r="190">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>10.0440584567739</v>
+        <v>10.0440615602977</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-3.51089948001421</v>
+        <v>-3.52049475422884</v>
       </c>
     </row>
     <row r="199">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>10.8557276883907</v>
+        <v>10.8557269147907</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-3.55133194250747</v>
+        <v>-3.56010870451726</v>
       </c>
     </row>
     <row r="208">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>11.5715334247453</v>
+        <v>11.5715369899453</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-2.04192915393579</v>
+        <v>-2.55762425902392</v>
       </c>
     </row>
     <row r="217">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>11.9375622814144</v>
+        <v>11.9375671401407</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-0.625917393500457</v>
+        <v>-2.00740940124549</v>
       </c>
     </row>
     <row r="226">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>11.5794239555941</v>
+        <v>11.579425978403</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-4.27361072545924</v>
+        <v>-3.47235209490597</v>
       </c>
     </row>
     <row r="235">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>12.087352850492</v>
+        <v>12.0873561153759</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-4.08565855042177</v>
+        <v>-4.05074280731668</v>
       </c>
     </row>
     <row r="244">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>12.3821067905403</v>
+        <v>12.3821038679903</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-3.88598339470224</v>
+        <v>-3.80204357348194</v>
       </c>
     </row>
     <row r="253">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>11.9914903497224</v>
+        <v>11.9914897127437</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-4.683637046556</v>
+        <v>-4.64411410084251</v>
       </c>
     </row>
     <row r="262">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>11.3443628964358</v>
+        <v>11.344363261112</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-5.13976786194863</v>
+        <v>-5.0824117657814</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>5.56249620595976</v>
+        <v>5.5625342147848</v>
       </c>
     </row>
     <row r="272">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>10.1526380276422</v>
+        <v>10.1708750433292</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-5.20253896759964</v>
+        <v>-5.14727204141675</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>5.6830090052159</v>
+        <v>5.68353659053538</v>
       </c>
     </row>
     <row r="281">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>9.98927673468467</v>
+        <v>9.99743211987879</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-5.0128888664344</v>
+        <v>-5.04650701400497</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>6.106158363647</v>
+        <v>6.10739553673583</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>7.98046151889902</v>
+        <v>7.97639417885437</v>
       </c>
     </row>
     <row r="291">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>17.9085875057657</v>
+        <v>17.9085822124179</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>9.63995111366615</v>
+        <v>9.12621273468391</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-5.39087500783434</v>
+        <v>-5.18049254348273</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>6.24041650510665</v>
+        <v>6.21406876534486</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>7.96953838350339</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>5.42723851542642</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.38992155981057</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>4.34728916683344</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>20.9493926500641</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>17.5369547041806</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>9.11457042821305</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-4.10301242820003</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>6.1997667828039</v>
       </c>
     </row>
   </sheetData>
